--- a/giovinazzo-dati-covid-2020-11-09.xlsx
+++ b/giovinazzo-dati-covid-2020-11-09.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/file_Thomas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\OneDrive\Documents\Repositories\dati\giovinazzo-dati-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C7697-7E8F-6242-A419-2FAA523FCB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933FF1E-4907-4C22-A10E-8A8B4C7DB3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30940" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
     <sheet name="totale_contagiati" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -204,6 +207,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Attualmente positivi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -217,7 +245,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -269,7 +297,7 @@
             <c:numRef>
               <c:f>attualmente_positivi!$A$2:$A$123</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
@@ -1018,7 +1046,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CD9-45CE-A09E-A536949E52C5}"/>
+              <c16:uniqueId val="{00000000-106B-40EB-B5C4-77D77D8B1603}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1041,7 +1069,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1063,7 +1091,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1121,7 +1149,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1148,6 +1176,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1207,6 +1266,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Totale contagiati ed incremento giornaliero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1220,7 +1304,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1272,7 +1356,7 @@
             <c:numRef>
               <c:f>totale_contagiati!$A$2:$A$107</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
@@ -1919,7 +2003,688 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2EB-4650-B43D-7E1D2C87D1BE}"/>
+              <c16:uniqueId val="{00000000-C6CD-4966-B0D7-7A63230626FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>totale_contagiati!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incremento giornaliero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>totale_contagiati!$A$2:$A$107</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="1">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>totale_contagiati!$C$2:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6CD-4966-B0D7-7A63230626FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1964,7 +2729,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2023,7 +2788,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2050,6 +2815,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3210,27 +4006,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>741734</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>5</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>22840</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137293</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDCB834-4C8B-4FC8-A8A8-6CEC77C2A4D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A0580A-C789-4B03-88F8-9C7C34565B4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3264,10 +4062,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439D7916-AD1F-4861-BF69-D0A5EBE4742A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4A1BC6-05DE-4564-9213-0523182DD6FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,6 +4086,2205 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="attualmente_positivi"/>
+      <sheetName val="totale_contagiati"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>n° attualmente positivi</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>43922</v>
+          </cell>
+          <cell r="B2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>43923</v>
+          </cell>
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>43925</v>
+          </cell>
+          <cell r="B4">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>43927</v>
+          </cell>
+          <cell r="B5">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>43928</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>43929</v>
+          </cell>
+          <cell r="B7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>43930</v>
+          </cell>
+          <cell r="B8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>43931</v>
+          </cell>
+          <cell r="B9">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>43932</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>43934</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>43935</v>
+          </cell>
+          <cell r="B12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>43936</v>
+          </cell>
+          <cell r="B13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>43937</v>
+          </cell>
+          <cell r="B14">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>43938</v>
+          </cell>
+          <cell r="B15">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>43939</v>
+          </cell>
+          <cell r="B16">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>43940</v>
+          </cell>
+          <cell r="B17">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>43941</v>
+          </cell>
+          <cell r="B18">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43942</v>
+          </cell>
+          <cell r="B19">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43943</v>
+          </cell>
+          <cell r="B20">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43945</v>
+          </cell>
+          <cell r="B21">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43946</v>
+          </cell>
+          <cell r="B22">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43947</v>
+          </cell>
+          <cell r="B23">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43949</v>
+          </cell>
+          <cell r="B24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>43950</v>
+          </cell>
+          <cell r="B25">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>43951</v>
+          </cell>
+          <cell r="B26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43952</v>
+          </cell>
+          <cell r="B27">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>43953</v>
+          </cell>
+          <cell r="B28">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>43955</v>
+          </cell>
+          <cell r="B29">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>43956</v>
+          </cell>
+          <cell r="B30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>43958</v>
+          </cell>
+          <cell r="B31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43959</v>
+          </cell>
+          <cell r="B32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>43960</v>
+          </cell>
+          <cell r="B33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>43961</v>
+          </cell>
+          <cell r="B34">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43962</v>
+          </cell>
+          <cell r="B35">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43963</v>
+          </cell>
+          <cell r="B36">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43964</v>
+          </cell>
+          <cell r="B37">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43967</v>
+          </cell>
+          <cell r="B38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43968</v>
+          </cell>
+          <cell r="B39">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43969</v>
+          </cell>
+          <cell r="B40">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43970</v>
+          </cell>
+          <cell r="B41">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43971</v>
+          </cell>
+          <cell r="B42">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43972</v>
+          </cell>
+          <cell r="B43">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43973</v>
+          </cell>
+          <cell r="B44">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>43974</v>
+          </cell>
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>43975</v>
+          </cell>
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>43977</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>43978</v>
+          </cell>
+          <cell r="B48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>43979</v>
+          </cell>
+          <cell r="B49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>43980</v>
+          </cell>
+          <cell r="B50">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>43981</v>
+          </cell>
+          <cell r="B51">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>43982</v>
+          </cell>
+          <cell r="B52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43983</v>
+          </cell>
+          <cell r="B53">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>43984</v>
+          </cell>
+          <cell r="B54">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>43985</v>
+          </cell>
+          <cell r="B55">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>43987</v>
+          </cell>
+          <cell r="B56">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>43988</v>
+          </cell>
+          <cell r="B57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>44029</v>
+          </cell>
+          <cell r="B58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>44030</v>
+          </cell>
+          <cell r="B59">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>44033</v>
+          </cell>
+          <cell r="B60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>44036</v>
+          </cell>
+          <cell r="B61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>44038</v>
+          </cell>
+          <cell r="B62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>44053</v>
+          </cell>
+          <cell r="B63">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>44055</v>
+          </cell>
+          <cell r="B64">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>44056</v>
+          </cell>
+          <cell r="B65">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>44057</v>
+          </cell>
+          <cell r="B66">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>44058</v>
+          </cell>
+          <cell r="B67">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>44059</v>
+          </cell>
+          <cell r="B68">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>44060</v>
+          </cell>
+          <cell r="B69">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>44061</v>
+          </cell>
+          <cell r="B70">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>44063</v>
+          </cell>
+          <cell r="B71">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>44064</v>
+          </cell>
+          <cell r="B72">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>44065</v>
+          </cell>
+          <cell r="B73">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>44066</v>
+          </cell>
+          <cell r="B74">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>44067</v>
+          </cell>
+          <cell r="B75">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>44068</v>
+          </cell>
+          <cell r="B76">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>44069</v>
+          </cell>
+          <cell r="B77">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>44070</v>
+          </cell>
+          <cell r="B78">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>44072</v>
+          </cell>
+          <cell r="B79">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>44074</v>
+          </cell>
+          <cell r="B80">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>44076</v>
+          </cell>
+          <cell r="B81">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>44079</v>
+          </cell>
+          <cell r="B82">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>44080</v>
+          </cell>
+          <cell r="B83">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>44082</v>
+          </cell>
+          <cell r="B84">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>44083</v>
+          </cell>
+          <cell r="B85">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>44084</v>
+          </cell>
+          <cell r="B86">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>44086</v>
+          </cell>
+          <cell r="B87">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>44087</v>
+          </cell>
+          <cell r="B88">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>44088</v>
+          </cell>
+          <cell r="B89">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>44090</v>
+          </cell>
+          <cell r="B90">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>44094</v>
+          </cell>
+          <cell r="B91">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>44095</v>
+          </cell>
+          <cell r="B92">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>44098</v>
+          </cell>
+          <cell r="B93">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>44100</v>
+          </cell>
+          <cell r="B94">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>44102</v>
+          </cell>
+          <cell r="B95">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>44103</v>
+          </cell>
+          <cell r="B96">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>44104</v>
+          </cell>
+          <cell r="B97">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>44106</v>
+          </cell>
+          <cell r="B98">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>44107</v>
+          </cell>
+          <cell r="B99">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>44109</v>
+          </cell>
+          <cell r="B100">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>44111</v>
+          </cell>
+          <cell r="B101">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>44112</v>
+          </cell>
+          <cell r="B102">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>44114</v>
+          </cell>
+          <cell r="B103">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>44115</v>
+          </cell>
+          <cell r="B104">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>44118</v>
+          </cell>
+          <cell r="B105">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>44119</v>
+          </cell>
+          <cell r="B106">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>44122</v>
+          </cell>
+          <cell r="B107">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>44125</v>
+          </cell>
+          <cell r="B108">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>44126</v>
+          </cell>
+          <cell r="B109">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>44128</v>
+          </cell>
+          <cell r="B110">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>44129</v>
+          </cell>
+          <cell r="B111">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>44130</v>
+          </cell>
+          <cell r="B112">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>44131</v>
+          </cell>
+          <cell r="B113">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>44133</v>
+          </cell>
+          <cell r="B114">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>44135</v>
+          </cell>
+          <cell r="B115">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>44136</v>
+          </cell>
+          <cell r="B116">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>44137</v>
+          </cell>
+          <cell r="B117">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>44138</v>
+          </cell>
+          <cell r="B118">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>44139</v>
+          </cell>
+          <cell r="B119">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>44140</v>
+          </cell>
+          <cell r="B120">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>44141</v>
+          </cell>
+          <cell r="B121">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>44142</v>
+          </cell>
+          <cell r="B122">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>44144</v>
+          </cell>
+          <cell r="B123">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>44147</v>
+          </cell>
+          <cell r="B124">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>44149</v>
+          </cell>
+          <cell r="B125">
+            <v>106</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>n°totale contagiati</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>incremento giornaliero</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>43922</v>
+          </cell>
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>43923</v>
+          </cell>
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>43925</v>
+          </cell>
+          <cell r="B5">
+            <v>8</v>
+          </cell>
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>43928</v>
+          </cell>
+          <cell r="B6">
+            <v>9</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>43929</v>
+          </cell>
+          <cell r="B7">
+            <v>9</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>43930</v>
+          </cell>
+          <cell r="B8">
+            <v>9</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>43931</v>
+          </cell>
+          <cell r="B9">
+            <v>9</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>43934</v>
+          </cell>
+          <cell r="B10">
+            <v>9</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>43935</v>
+          </cell>
+          <cell r="B11">
+            <v>9</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>43936</v>
+          </cell>
+          <cell r="B12">
+            <v>9</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>43937</v>
+          </cell>
+          <cell r="B13">
+            <v>10</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>43938</v>
+          </cell>
+          <cell r="B14">
+            <v>11</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>43939</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>43940</v>
+          </cell>
+          <cell r="B16">
+            <v>11</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>43941</v>
+          </cell>
+          <cell r="B17">
+            <v>11</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>43942</v>
+          </cell>
+          <cell r="B18">
+            <v>11</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43943</v>
+          </cell>
+          <cell r="B19">
+            <v>11</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43945</v>
+          </cell>
+          <cell r="B20">
+            <v>12</v>
+          </cell>
+          <cell r="C20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43946</v>
+          </cell>
+          <cell r="B21">
+            <v>12</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43947</v>
+          </cell>
+          <cell r="B22">
+            <v>12</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43949</v>
+          </cell>
+          <cell r="B23">
+            <v>12</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43950</v>
+          </cell>
+          <cell r="B24">
+            <v>12</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>43951</v>
+          </cell>
+          <cell r="B25">
+            <v>12</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>43952</v>
+          </cell>
+          <cell r="B26">
+            <v>12</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43953</v>
+          </cell>
+          <cell r="B27">
+            <v>12</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>43955</v>
+          </cell>
+          <cell r="B28">
+            <v>12</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>43956</v>
+          </cell>
+          <cell r="B29">
+            <v>12</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>43958</v>
+          </cell>
+          <cell r="B30">
+            <v>12</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>43959</v>
+          </cell>
+          <cell r="B31">
+            <v>13</v>
+          </cell>
+          <cell r="C31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43960</v>
+          </cell>
+          <cell r="B32">
+            <v>13</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>43961</v>
+          </cell>
+          <cell r="B33">
+            <v>14</v>
+          </cell>
+          <cell r="C33">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>43962</v>
+          </cell>
+          <cell r="B34">
+            <v>14</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43963</v>
+          </cell>
+          <cell r="B35">
+            <v>14</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43964</v>
+          </cell>
+          <cell r="B36">
+            <v>14</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43967</v>
+          </cell>
+          <cell r="B37">
+            <v>14</v>
+          </cell>
+          <cell r="C37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43968</v>
+          </cell>
+          <cell r="B38">
+            <v>14</v>
+          </cell>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43969</v>
+          </cell>
+          <cell r="B39">
+            <v>14</v>
+          </cell>
+          <cell r="C39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43970</v>
+          </cell>
+          <cell r="B40">
+            <v>14</v>
+          </cell>
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43971</v>
+          </cell>
+          <cell r="B41">
+            <v>14</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43972</v>
+          </cell>
+          <cell r="B42">
+            <v>14</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43973</v>
+          </cell>
+          <cell r="B43">
+            <v>14</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43980</v>
+          </cell>
+          <cell r="B44">
+            <v>15</v>
+          </cell>
+          <cell r="C44">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44029</v>
+          </cell>
+          <cell r="B45">
+            <v>16</v>
+          </cell>
+          <cell r="C45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>44053</v>
+          </cell>
+          <cell r="B46">
+            <v>22</v>
+          </cell>
+          <cell r="C46">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>44055</v>
+          </cell>
+          <cell r="B47">
+            <v>22</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>44056</v>
+          </cell>
+          <cell r="B48">
+            <v>22</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>44057</v>
+          </cell>
+          <cell r="B49">
+            <v>22</v>
+          </cell>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>44058</v>
+          </cell>
+          <cell r="B50">
+            <v>22</v>
+          </cell>
+          <cell r="C50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>44059</v>
+          </cell>
+          <cell r="B51">
+            <v>22</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>44060</v>
+          </cell>
+          <cell r="B52">
+            <v>22</v>
+          </cell>
+          <cell r="C52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>44061</v>
+          </cell>
+          <cell r="B53">
+            <v>22</v>
+          </cell>
+          <cell r="C53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>44063</v>
+          </cell>
+          <cell r="B54">
+            <v>22</v>
+          </cell>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>44064</v>
+          </cell>
+          <cell r="B55">
+            <v>22</v>
+          </cell>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>44065</v>
+          </cell>
+          <cell r="B56">
+            <v>22</v>
+          </cell>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>44066</v>
+          </cell>
+          <cell r="B57">
+            <v>22</v>
+          </cell>
+          <cell r="C57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>44067</v>
+          </cell>
+          <cell r="B58">
+            <v>22</v>
+          </cell>
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>44068</v>
+          </cell>
+          <cell r="B59">
+            <v>22</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>44069</v>
+          </cell>
+          <cell r="B60">
+            <v>23</v>
+          </cell>
+          <cell r="C60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>44070</v>
+          </cell>
+          <cell r="B61">
+            <v>23</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>44072</v>
+          </cell>
+          <cell r="B62">
+            <v>24</v>
+          </cell>
+          <cell r="C62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>44074</v>
+          </cell>
+          <cell r="B63">
+            <v>24</v>
+          </cell>
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>44076</v>
+          </cell>
+          <cell r="B64">
+            <v>24</v>
+          </cell>
+          <cell r="C64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>44077</v>
+          </cell>
+          <cell r="B65">
+            <v>24</v>
+          </cell>
+          <cell r="C65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>44078</v>
+          </cell>
+          <cell r="B66">
+            <v>24</v>
+          </cell>
+          <cell r="C66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>44079</v>
+          </cell>
+          <cell r="B67">
+            <v>24</v>
+          </cell>
+          <cell r="C67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>44080</v>
+          </cell>
+          <cell r="B68">
+            <v>24</v>
+          </cell>
+          <cell r="C68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>44082</v>
+          </cell>
+          <cell r="B69">
+            <v>25</v>
+          </cell>
+          <cell r="C69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>44083</v>
+          </cell>
+          <cell r="B70">
+            <v>25</v>
+          </cell>
+          <cell r="C70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>44084</v>
+          </cell>
+          <cell r="B71">
+            <v>25</v>
+          </cell>
+          <cell r="C71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>44086</v>
+          </cell>
+          <cell r="B72">
+            <v>25</v>
+          </cell>
+          <cell r="C72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>44087</v>
+          </cell>
+          <cell r="B73">
+            <v>25</v>
+          </cell>
+          <cell r="C73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>44088</v>
+          </cell>
+          <cell r="B74">
+            <v>27</v>
+          </cell>
+          <cell r="C74">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>44090</v>
+          </cell>
+          <cell r="B75">
+            <v>28</v>
+          </cell>
+          <cell r="C75">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>44094</v>
+          </cell>
+          <cell r="B76">
+            <v>28</v>
+          </cell>
+          <cell r="C76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>44095</v>
+          </cell>
+          <cell r="B77">
+            <v>28</v>
+          </cell>
+          <cell r="C77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>44098</v>
+          </cell>
+          <cell r="B78">
+            <v>28</v>
+          </cell>
+          <cell r="C78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>44102</v>
+          </cell>
+          <cell r="B79">
+            <v>29</v>
+          </cell>
+          <cell r="C79">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>44103</v>
+          </cell>
+          <cell r="B80">
+            <v>29</v>
+          </cell>
+          <cell r="C80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>44104</v>
+          </cell>
+          <cell r="B81">
+            <v>29</v>
+          </cell>
+          <cell r="C81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>44106</v>
+          </cell>
+          <cell r="B82">
+            <v>29</v>
+          </cell>
+          <cell r="C82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>44107</v>
+          </cell>
+          <cell r="B83">
+            <v>29</v>
+          </cell>
+          <cell r="C83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>44109</v>
+          </cell>
+          <cell r="B84">
+            <v>30</v>
+          </cell>
+          <cell r="C84">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>44111</v>
+          </cell>
+          <cell r="B85">
+            <v>31</v>
+          </cell>
+          <cell r="C85">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>44112</v>
+          </cell>
+          <cell r="B86">
+            <v>32</v>
+          </cell>
+          <cell r="C86">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>44114</v>
+          </cell>
+          <cell r="B87">
+            <v>32</v>
+          </cell>
+          <cell r="C87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>44115</v>
+          </cell>
+          <cell r="B88">
+            <v>33</v>
+          </cell>
+          <cell r="C88">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>44118</v>
+          </cell>
+          <cell r="B89">
+            <v>39</v>
+          </cell>
+          <cell r="C89">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>44119</v>
+          </cell>
+          <cell r="B90">
+            <v>40</v>
+          </cell>
+          <cell r="C90">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>44122</v>
+          </cell>
+          <cell r="B91">
+            <v>43</v>
+          </cell>
+          <cell r="C91">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>44125</v>
+          </cell>
+          <cell r="B92">
+            <v>43</v>
+          </cell>
+          <cell r="C92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>44126</v>
+          </cell>
+          <cell r="B93">
+            <v>49</v>
+          </cell>
+          <cell r="C93">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>44128</v>
+          </cell>
+          <cell r="B94">
+            <v>52</v>
+          </cell>
+          <cell r="C94">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>44129</v>
+          </cell>
+          <cell r="B95">
+            <v>56</v>
+          </cell>
+          <cell r="C95">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>44130</v>
+          </cell>
+          <cell r="B96">
+            <v>58</v>
+          </cell>
+          <cell r="C96">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>44131</v>
+          </cell>
+          <cell r="B97">
+            <v>63</v>
+          </cell>
+          <cell r="C97">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>44133</v>
+          </cell>
+          <cell r="B98">
+            <v>69</v>
+          </cell>
+          <cell r="C98">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>44135</v>
+          </cell>
+          <cell r="B99">
+            <v>75</v>
+          </cell>
+          <cell r="C99">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>44136</v>
+          </cell>
+          <cell r="B100">
+            <v>87</v>
+          </cell>
+          <cell r="C100">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>44137</v>
+          </cell>
+          <cell r="B101">
+            <v>88</v>
+          </cell>
+          <cell r="C101">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>44138</v>
+          </cell>
+          <cell r="B102">
+            <v>90</v>
+          </cell>
+          <cell r="C102">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>44139</v>
+          </cell>
+          <cell r="B103">
+            <v>91</v>
+          </cell>
+          <cell r="C103">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>44140</v>
+          </cell>
+          <cell r="B104">
+            <v>97</v>
+          </cell>
+          <cell r="C104">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>44141</v>
+          </cell>
+          <cell r="B105">
+            <v>105</v>
+          </cell>
+          <cell r="C105">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>44142</v>
+          </cell>
+          <cell r="B106">
+            <v>107</v>
+          </cell>
+          <cell r="C106">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>44144</v>
+          </cell>
+          <cell r="B107">
+            <v>126</v>
+          </cell>
+          <cell r="C107">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>44147</v>
+          </cell>
+          <cell r="B108">
+            <v>149</v>
+          </cell>
+          <cell r="C108">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>44149</v>
+          </cell>
+          <cell r="B109">
+            <v>159</v>
+          </cell>
+          <cell r="C109">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3613,19 +6610,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3633,7 +6630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43922</v>
       </c>
@@ -3641,7 +6638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43923</v>
       </c>
@@ -3649,7 +6646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43925</v>
       </c>
@@ -3657,7 +6654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43927</v>
       </c>
@@ -3665,7 +6662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43928</v>
       </c>
@@ -3673,7 +6670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43929</v>
       </c>
@@ -3681,7 +6678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43930</v>
       </c>
@@ -3689,7 +6686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43931</v>
       </c>
@@ -3697,7 +6694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43932</v>
       </c>
@@ -3705,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43934</v>
       </c>
@@ -3713,7 +6710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43935</v>
       </c>
@@ -3721,7 +6718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43936</v>
       </c>
@@ -3729,7 +6726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43937</v>
       </c>
@@ -3737,7 +6734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43938</v>
       </c>
@@ -3745,7 +6742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43939</v>
       </c>
@@ -3753,7 +6750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43940</v>
       </c>
@@ -3761,7 +6758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43941</v>
       </c>
@@ -3769,7 +6766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43942</v>
       </c>
@@ -3777,7 +6774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43943</v>
       </c>
@@ -3785,7 +6782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43945</v>
       </c>
@@ -3793,7 +6790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43946</v>
       </c>
@@ -3801,7 +6798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43947</v>
       </c>
@@ -3809,7 +6806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43949</v>
       </c>
@@ -3817,7 +6814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43950</v>
       </c>
@@ -3825,7 +6822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43951</v>
       </c>
@@ -3833,7 +6830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43952</v>
       </c>
@@ -3841,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43953</v>
       </c>
@@ -3849,7 +6846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43955</v>
       </c>
@@ -3857,7 +6854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43956</v>
       </c>
@@ -3865,7 +6862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43958</v>
       </c>
@@ -3873,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43959</v>
       </c>
@@ -3881,7 +6878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43960</v>
       </c>
@@ -3889,7 +6886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43961</v>
       </c>
@@ -3897,7 +6894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43962</v>
       </c>
@@ -3905,7 +6902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43963</v>
       </c>
@@ -3913,7 +6910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43964</v>
       </c>
@@ -3921,7 +6918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43967</v>
       </c>
@@ -3929,7 +6926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43968</v>
       </c>
@@ -3937,7 +6934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43969</v>
       </c>
@@ -3945,7 +6942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43970</v>
       </c>
@@ -3953,7 +6950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43971</v>
       </c>
@@ -3961,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43972</v>
       </c>
@@ -3969,7 +6966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43973</v>
       </c>
@@ -3977,7 +6974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43974</v>
       </c>
@@ -3985,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43975</v>
       </c>
@@ -3993,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43977</v>
       </c>
@@ -4001,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43978</v>
       </c>
@@ -4009,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43979</v>
       </c>
@@ -4017,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43980</v>
       </c>
@@ -4025,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43981</v>
       </c>
@@ -4033,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43982</v>
       </c>
@@ -4041,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43983</v>
       </c>
@@ -4049,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43984</v>
       </c>
@@ -4057,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43985</v>
       </c>
@@ -4065,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43987</v>
       </c>
@@ -4073,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43988</v>
       </c>
@@ -4081,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44029</v>
       </c>
@@ -4089,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44030</v>
       </c>
@@ -4097,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44033</v>
       </c>
@@ -4105,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44036</v>
       </c>
@@ -4113,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44038</v>
       </c>
@@ -4121,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44053</v>
       </c>
@@ -4129,7 +7126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44055</v>
       </c>
@@ -4137,7 +7134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44056</v>
       </c>
@@ -4145,7 +7142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44057</v>
       </c>
@@ -4153,7 +7150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44058</v>
       </c>
@@ -4161,7 +7158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44059</v>
       </c>
@@ -4169,7 +7166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44060</v>
       </c>
@@ -4177,7 +7174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44061</v>
       </c>
@@ -4185,7 +7182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44063</v>
       </c>
@@ -4193,7 +7190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44064</v>
       </c>
@@ -4201,7 +7198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44065</v>
       </c>
@@ -4209,7 +7206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44066</v>
       </c>
@@ -4217,7 +7214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44067</v>
       </c>
@@ -4225,7 +7222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44068</v>
       </c>
@@ -4233,7 +7230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44069</v>
       </c>
@@ -4241,7 +7238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44070</v>
       </c>
@@ -4249,7 +7246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44072</v>
       </c>
@@ -4257,7 +7254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44074</v>
       </c>
@@ -4265,7 +7262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44076</v>
       </c>
@@ -4273,7 +7270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44079</v>
       </c>
@@ -4281,7 +7278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44080</v>
       </c>
@@ -4289,7 +7286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44082</v>
       </c>
@@ -4297,7 +7294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44083</v>
       </c>
@@ -4305,7 +7302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44084</v>
       </c>
@@ -4313,7 +7310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44086</v>
       </c>
@@ -4321,7 +7318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44087</v>
       </c>
@@ -4329,7 +7326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44088</v>
       </c>
@@ -4337,7 +7334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44090</v>
       </c>
@@ -4345,7 +7342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44094</v>
       </c>
@@ -4353,7 +7350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44095</v>
       </c>
@@ -4361,7 +7358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44098</v>
       </c>
@@ -4369,7 +7366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44100</v>
       </c>
@@ -4377,7 +7374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44102</v>
       </c>
@@ -4385,7 +7382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44103</v>
       </c>
@@ -4393,7 +7390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44104</v>
       </c>
@@ -4401,7 +7398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44106</v>
       </c>
@@ -4409,7 +7406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44107</v>
       </c>
@@ -4417,7 +7414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44109</v>
       </c>
@@ -4425,7 +7422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44111</v>
       </c>
@@ -4433,7 +7430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44112</v>
       </c>
@@ -4441,7 +7438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44114</v>
       </c>
@@ -4449,7 +7446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44115</v>
       </c>
@@ -4457,7 +7454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44118</v>
       </c>
@@ -4465,7 +7462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44119</v>
       </c>
@@ -4473,7 +7470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44122</v>
       </c>
@@ -4481,7 +7478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44125</v>
       </c>
@@ -4489,7 +7486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44126</v>
       </c>
@@ -4497,7 +7494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44128</v>
       </c>
@@ -4505,7 +7502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44129</v>
       </c>
@@ -4513,7 +7510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44130</v>
       </c>
@@ -4521,7 +7518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44131</v>
       </c>
@@ -4529,7 +7526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44133</v>
       </c>
@@ -4537,7 +7534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44135</v>
       </c>
@@ -4545,7 +7542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44136</v>
       </c>
@@ -4553,7 +7550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44137</v>
       </c>
@@ -4561,7 +7558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44138</v>
       </c>
@@ -4569,7 +7566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44139</v>
       </c>
@@ -4577,7 +7574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44140</v>
       </c>
@@ -4585,7 +7582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44141</v>
       </c>
@@ -4593,7 +7590,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44142</v>
       </c>
@@ -4601,7 +7598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44144</v>
       </c>
@@ -4620,20 +7617,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="13" width="9.1640625" style="4"/>
+    <col min="4" max="13" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +7653,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4691,7 +7688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43922</v>
       </c>
@@ -4732,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43923</v>
       </c>
@@ -4773,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43925</v>
       </c>
@@ -4814,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43928</v>
       </c>
@@ -4855,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43929</v>
       </c>
@@ -4896,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43930</v>
       </c>
@@ -4937,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43931</v>
       </c>
@@ -4978,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43934</v>
       </c>
@@ -5019,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43935</v>
       </c>
@@ -5060,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43936</v>
       </c>
@@ -5101,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43937</v>
       </c>
@@ -5142,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43938</v>
       </c>
@@ -5183,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43939</v>
       </c>
@@ -5224,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43940</v>
       </c>
@@ -5265,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43941</v>
       </c>
@@ -5306,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43942</v>
       </c>
@@ -5347,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43943</v>
       </c>
@@ -5388,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43945</v>
       </c>
@@ -5429,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43946</v>
       </c>
@@ -5470,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43947</v>
       </c>
@@ -5511,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43949</v>
       </c>
@@ -5552,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43950</v>
       </c>
@@ -5593,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43951</v>
       </c>
@@ -5634,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43952</v>
       </c>
@@ -5675,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43953</v>
       </c>
@@ -5716,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43955</v>
       </c>
@@ -5757,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43956</v>
       </c>
@@ -5798,7 +8795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43958</v>
       </c>
@@ -5839,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43959</v>
       </c>
@@ -5880,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43960</v>
       </c>
@@ -5921,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43961</v>
       </c>
@@ -5962,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43962</v>
       </c>
@@ -6003,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43963</v>
       </c>
@@ -6044,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43964</v>
       </c>
@@ -6085,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43967</v>
       </c>
@@ -6126,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43968</v>
       </c>
@@ -6167,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43969</v>
       </c>
@@ -6208,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43970</v>
       </c>
@@ -6249,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43971</v>
       </c>
@@ -6290,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43972</v>
       </c>
@@ -6331,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43973</v>
       </c>
@@ -6372,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43980</v>
       </c>
@@ -6413,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44029</v>
       </c>
@@ -6454,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44053</v>
       </c>
@@ -6495,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44055</v>
       </c>
@@ -6536,7 +9533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44056</v>
       </c>
@@ -6577,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44057</v>
       </c>
@@ -6618,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44058</v>
       </c>
@@ -6659,7 +9656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44059</v>
       </c>
@@ -6700,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44060</v>
       </c>
@@ -6741,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44061</v>
       </c>
@@ -6782,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44063</v>
       </c>
@@ -6823,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44064</v>
       </c>
@@ -6864,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44065</v>
       </c>
@@ -6905,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44066</v>
       </c>
@@ -6946,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44067</v>
       </c>
@@ -6987,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44068</v>
       </c>
@@ -7028,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44069</v>
       </c>
@@ -7069,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44070</v>
       </c>
@@ -7110,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44072</v>
       </c>
@@ -7151,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44074</v>
       </c>
@@ -7192,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44076</v>
       </c>
@@ -7233,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44077</v>
       </c>
@@ -7274,7 +10271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44078</v>
       </c>
@@ -7315,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44079</v>
       </c>
@@ -7356,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44080</v>
       </c>
@@ -7397,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44082</v>
       </c>
@@ -7438,7 +10435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44083</v>
       </c>
@@ -7479,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44084</v>
       </c>
@@ -7520,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44086</v>
       </c>
@@ -7561,7 +10558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44087</v>
       </c>
@@ -7602,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44088</v>
       </c>
@@ -7643,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44090</v>
       </c>
@@ -7684,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44094</v>
       </c>
@@ -7725,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44095</v>
       </c>
@@ -7766,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44098</v>
       </c>
@@ -7807,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44102</v>
       </c>
@@ -7848,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44103</v>
       </c>
@@ -7889,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44104</v>
       </c>
@@ -7930,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44106</v>
       </c>
@@ -7971,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44107</v>
       </c>
@@ -8012,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44109</v>
       </c>
@@ -8053,7 +11050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44111</v>
       </c>
@@ -8094,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44112</v>
       </c>
@@ -8135,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44114</v>
       </c>
@@ -8176,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44115</v>
       </c>
@@ -8217,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44118</v>
       </c>
@@ -8258,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44119</v>
       </c>
@@ -8299,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44122</v>
       </c>
@@ -8340,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44125</v>
       </c>
@@ -8381,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44126</v>
       </c>
@@ -8422,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44128</v>
       </c>
@@ -8463,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44129</v>
       </c>
@@ -8504,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44130</v>
       </c>
@@ -8545,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44131</v>
       </c>
@@ -8586,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44133</v>
       </c>
@@ -8627,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44135</v>
       </c>
@@ -8668,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44136</v>
       </c>
@@ -8709,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44137</v>
       </c>
@@ -8750,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44138</v>
       </c>
@@ -8791,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44139</v>
       </c>
@@ -8832,7 +11829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44140</v>
       </c>
@@ -8873,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44141</v>
       </c>
@@ -8914,7 +11911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44142</v>
       </c>
@@ -8955,7 +11952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44144</v>
       </c>
